--- a/node-server/inlet-outlet-test.xlsx
+++ b/node-server/inlet-outlet-test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17895"/>
+    <workbookView windowWidth="19890" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -25,16 +25,10 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>BDC</t>
-  </si>
-  <si>
     <t>Depot</t>
   </si>
   <si>
     <t>PMS</t>
-  </si>
-  <si>
-    <t>CASH OIL</t>
   </si>
   <si>
     <t>Depot Dd</t>
@@ -43,73 +37,22 @@
     <t>RFO</t>
   </si>
   <si>
-    <t>DA OIL</t>
-  </si>
-  <si>
     <t>KEROSENE</t>
-  </si>
-  <si>
-    <t>EV OIL</t>
   </si>
   <si>
     <t>AGO MINES</t>
   </si>
   <si>
-    <t>EXCEL OIL</t>
-  </si>
-  <si>
     <t>MGO</t>
-  </si>
-  <si>
-    <t>FIRST OIL</t>
   </si>
   <si>
     <t>UNIFIED</t>
   </si>
   <si>
-    <t>FINEST OIL</t>
-  </si>
-  <si>
     <t>AGO RIG</t>
   </si>
   <si>
-    <t>FIRST TEST</t>
-  </si>
-  <si>
     <t>MGO Foreign</t>
-  </si>
-  <si>
-    <t>FIRST GAS</t>
-  </si>
-  <si>
-    <t>DELIMAN</t>
-  </si>
-  <si>
-    <t>DUKES PETROLEUM</t>
-  </si>
-  <si>
-    <t>FRIMPS OIL</t>
-  </si>
-  <si>
-    <t>FRAGA OIL</t>
-  </si>
-  <si>
-    <t>TOP OIL</t>
-  </si>
-  <si>
-    <t>UINON OIL</t>
-  </si>
-  <si>
-    <t>UNIQUE OIL</t>
-  </si>
-  <si>
-    <t>UNITY OIL</t>
-  </si>
-  <si>
-    <t>UNIVERSAL OIL</t>
-  </si>
-  <si>
-    <t>VIVO ENERGY GHANA LIMITED</t>
   </si>
   <si>
     <t>ATK</t>
@@ -123,11 +66,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -146,6 +89,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -155,21 +120,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,13 +134,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -215,20 +159,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -261,22 +191,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +211,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -299,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,33 +438,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,11 +488,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +509,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -601,7 +544,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,130 +556,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -747,10 +690,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,22 +1015,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.4285714285714" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
-    <col min="4" max="4" width="30.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="15.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="15.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1100,977 +1042,803 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>44331</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>254128</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>44332</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>254129</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>44333</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>254130</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>44334</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>254131</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>44335</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>254132</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>44336</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>254133</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>44337</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>254134</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>44338</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>254135</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>44339</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>254136</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>44340</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>254137</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>44341</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>254138</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>44342</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>254139</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>44343</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>254140</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>44344</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>254141</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>44345</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>254142</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>44346</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>254143</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>44347</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>254144</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>44348</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>254145</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>44349</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>254146</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>44350</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>254147</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>44351</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>254148</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>44352</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>254149</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>44353</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>254150</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>44354</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>254151</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>44355</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>254152</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>44356</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>254153</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>44357</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>254154</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>44358</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>254155</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>44359</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>254156</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>44360</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>254157</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>44361</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>254158</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>44362</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>254159</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>44363</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>254160</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>44364</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>254161</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>44365</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>254162</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>44366</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>254163</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>44367</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>254164</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>44368</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>254165</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>44369</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>254166</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>44370</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>254167</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>44371</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>254168</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
         <v>44372</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>254169</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>44373</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C44">
         <v>254170</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
         <v>44374</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>254171</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
         <v>44375</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>254172</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
         <v>44376</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>254173</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
         <v>44377</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <v>254174</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>44378</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>254175</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>44379</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>254176</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>44380</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>254177</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
         <v>44381</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C52">
         <v>254178</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
         <v>44382</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>254179</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
         <v>44383</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>254180</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
         <v>44384</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>254181</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
         <v>44385</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>254182</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
         <v>44386</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C57">
         <v>254183</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
         <v>44387</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>254184</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
